--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\TwinStarProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TwinStars\TwinStarProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70E66AC-0C6B-42F0-9682-07B9C4A8557A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6CB53-F5D9-416E-ACF2-AA1AFCAC670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Start Week Commencing 19/08</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -60,12 +57,6 @@
     <t>In Progress</t>
   </si>
   <si>
-    <t>Start Laying out Level</t>
-  </si>
-  <si>
-    <t>Begin Mechanics Dev</t>
-  </si>
-  <si>
     <t>Anjies Tasks</t>
   </si>
   <si>
@@ -79,6 +70,45 @@
   </si>
   <si>
     <t>Look at Illustrator</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>House Parts Modelling</t>
+  </si>
+  <si>
+    <t>Projection Map Textures</t>
+  </si>
+  <si>
+    <t>Low Poly House</t>
+  </si>
+  <si>
+    <t>Character?</t>
+  </si>
+  <si>
+    <t>Items (Assorted)</t>
+  </si>
+  <si>
+    <t>Decide on Prototype Mechanics</t>
+  </si>
+  <si>
+    <t>Initial Setting/Style</t>
+  </si>
+  <si>
+    <t>Start Blocking Out Level</t>
+  </si>
+  <si>
+    <t>Basic Mechanics Dev</t>
+  </si>
+  <si>
+    <t>TDD</t>
+  </si>
+  <si>
+    <t>Hard Surface Mats Blocks</t>
+  </si>
+  <si>
+    <t>Start Week Commencing 12/08</t>
   </si>
 </sst>
 </file>
@@ -167,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
@@ -457,21 +487,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="8" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="26.7265625" customWidth="1"/>
+    <col min="6" max="6" width="27.54296875" customWidth="1"/>
+    <col min="7" max="8" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -496,116 +526,159 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="F19" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="8" t="s">
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
+    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F24" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\TwinStars\TwinStarProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\TwinStarProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C6CB53-F5D9-416E-ACF2-AA1AFCAC670B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E84CB11-687F-44EE-A688-84681F7BEEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>WEEK 1</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>Start Week Commencing 12/08</t>
+  </si>
+  <si>
+    <t>Think of Colour Pallet for UI</t>
+  </si>
+  <si>
+    <t>Reference Images</t>
+  </si>
+  <si>
+    <t>Roles:</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Level Design</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Project Management</t>
   </si>
 </sst>
 </file>
@@ -180,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +212,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,21 +601,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="26.7265625" customWidth="1"/>
-    <col min="6" max="6" width="27.54296875" customWidth="1"/>
-    <col min="7" max="8" width="27.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="8" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -526,7 +640,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -546,7 +660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D3" s="3">
         <v>1</v>
       </c>
@@ -560,7 +674,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -577,7 +691,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>8</v>
@@ -592,7 +706,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
         <v>9</v>
@@ -604,82 +718,184 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D9" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D10" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D11" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E18" s="6" t="s">
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H19" s="15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F20" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F21" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F22" t="s">
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="9"/>
+      <c r="F23" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="9"/>
+      <c r="F24" s="10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="9"/>
+      <c r="F25" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\TwinStarProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E84CB11-687F-44EE-A688-84681F7BEEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C5D759-D31A-428F-ADC1-B4168020E4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -307,11 +307,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -601,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
@@ -761,13 +759,13 @@
       <c r="E17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -775,127 +773,110 @@
       <c r="E18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H20" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E21" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E22" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F23" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="9"/>
-      <c r="F23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E24" s="9"/>
-      <c r="F24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\TwinStarProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C5D759-D31A-428F-ADC1-B4168020E4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE36B4A-FFC5-4C7E-9FEE-6776EDC01AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,24 +296,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,15 +603,16 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="27.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="8" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" style="2"/>
+    <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="27.5703125" style="2"/>
+    <col min="8" max="8" width="25.7109375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="27.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -639,246 +641,247 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" t="s">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D8" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D10" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D12" s="3">
+      <c r="C12" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E17" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="9" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="11" t="s">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="E20" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="9" t="s">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F21" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="9" t="s">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="9" t="s">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="9"/>
-      <c r="F24" t="s">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="9"/>
-      <c r="F25" t="s">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="10"/>
+      <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="9"/>
-      <c r="F26" t="s">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="9"/>
-      <c r="H29" s="10"/>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="9"/>
-      <c r="H30" s="10"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="9"/>
-      <c r="H31" s="10"/>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="9"/>
-      <c r="H32" s="10"/>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="9"/>
-      <c r="H33" s="10"/>
-    </row>
-    <row r="34" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="10"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="10"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="10"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>